--- a/Code/Results/Cases/Case_0_80/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_80/res_line/pl_mw.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1286389430880632</v>
+        <v>0.1526000130636476</v>
       </c>
       <c r="D2">
-        <v>0.0936182041335698</v>
+        <v>0.09915332967504753</v>
       </c>
       <c r="E2">
-        <v>0.08236860158629966</v>
+        <v>0.140549707625361</v>
       </c>
       <c r="F2">
-        <v>1.10274262460905</v>
+        <v>2.491299424789091</v>
       </c>
       <c r="G2">
-        <v>0.8037773184684767</v>
+        <v>1.779943708681913</v>
       </c>
       <c r="H2">
-        <v>0.5774487296549609</v>
+        <v>1.57136609747451</v>
       </c>
       <c r="I2">
-        <v>0.7797982226151845</v>
+        <v>1.775815328987598</v>
       </c>
       <c r="J2">
-        <v>0.09780868391571573</v>
+        <v>0.21281199231926</v>
       </c>
       <c r="K2">
-        <v>5.060109874457169</v>
+        <v>2.62427832058529</v>
       </c>
       <c r="L2">
-        <v>0.1039278550940921</v>
+        <v>0.2148883173652152</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1148046745691857</v>
+        <v>0.1490642734085696</v>
       </c>
       <c r="D3">
-        <v>0.08268210624469674</v>
+        <v>0.09595602584956708</v>
       </c>
       <c r="E3">
-        <v>0.07584672666549608</v>
+        <v>0.1394040164962149</v>
       </c>
       <c r="F3">
-        <v>1.077237022829976</v>
+        <v>2.510866881906729</v>
       </c>
       <c r="G3">
-        <v>0.7887345981579301</v>
+        <v>1.798341471978617</v>
       </c>
       <c r="H3">
-        <v>0.5823914992934078</v>
+        <v>1.587801569165379</v>
       </c>
       <c r="I3">
-        <v>0.7634712556331635</v>
+        <v>1.790624223074772</v>
       </c>
       <c r="J3">
-        <v>0.09345866787440826</v>
+        <v>0.2131302842509228</v>
       </c>
       <c r="K3">
-        <v>4.399927138744943</v>
+        <v>2.430284566814805</v>
       </c>
       <c r="L3">
-        <v>0.09807080637051513</v>
+        <v>0.2145085662648327</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1063824595026261</v>
+        <v>0.1469291304647697</v>
       </c>
       <c r="D4">
-        <v>0.07599717614640866</v>
+        <v>0.09400193139301649</v>
       </c>
       <c r="E4">
-        <v>0.07191774611943558</v>
+        <v>0.1387456275885093</v>
       </c>
       <c r="F4">
-        <v>1.064828647888042</v>
+        <v>2.524486748038889</v>
       </c>
       <c r="G4">
-        <v>0.7825349119640777</v>
+        <v>1.811006179643044</v>
       </c>
       <c r="H4">
-        <v>0.587117148075734</v>
+        <v>1.598795043588282</v>
       </c>
       <c r="I4">
-        <v>0.7558275775801846</v>
+        <v>1.800882374654634</v>
       </c>
       <c r="J4">
-        <v>0.09094632979052264</v>
+        <v>0.2134177468574698</v>
       </c>
       <c r="K4">
-        <v>3.996635195026954</v>
+        <v>2.311489827715889</v>
       </c>
       <c r="L4">
-        <v>0.09459957503827354</v>
+        <v>0.2143525854560409</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1029663321461811</v>
+        <v>0.1460681149015812</v>
       </c>
       <c r="D5">
-        <v>0.07327909650417297</v>
+        <v>0.0932079595699804</v>
       </c>
       <c r="E5">
-        <v>0.07033422650262011</v>
+        <v>0.138488694624801</v>
       </c>
       <c r="F5">
-        <v>1.06054252894247</v>
+        <v>2.530440063428514</v>
       </c>
       <c r="G5">
-        <v>0.7807252064217778</v>
+        <v>1.816510436888208</v>
       </c>
       <c r="H5">
-        <v>0.589446710342358</v>
+        <v>1.603501575869885</v>
       </c>
       <c r="I5">
-        <v>0.7532767088751982</v>
+        <v>1.805355265272318</v>
       </c>
       <c r="J5">
-        <v>0.08996013951485082</v>
+        <v>0.2135580431114086</v>
       </c>
       <c r="K5">
-        <v>3.832708698846147</v>
+        <v>2.263162216242449</v>
       </c>
       <c r="L5">
-        <v>0.09321458841731811</v>
+        <v>0.2143084624953318</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1023999934906925</v>
+        <v>0.1459256938582598</v>
       </c>
       <c r="D6">
-        <v>0.07282808934035501</v>
+        <v>0.09307626408217118</v>
       </c>
       <c r="E6">
-        <v>0.07007230629924166</v>
+        <v>0.1384467185424967</v>
       </c>
       <c r="F6">
-        <v>1.059876024964751</v>
+        <v>2.531452936976237</v>
       </c>
       <c r="G6">
-        <v>0.7804666820025972</v>
+        <v>1.817445124512986</v>
       </c>
       <c r="H6">
-        <v>0.5898573249533712</v>
+        <v>1.604296771760801</v>
       </c>
       <c r="I6">
-        <v>0.7528862292478564</v>
+        <v>1.806115645265741</v>
       </c>
       <c r="J6">
-        <v>0.08979859129583545</v>
+        <v>0.2135827379147948</v>
       </c>
       <c r="K6">
-        <v>3.805511297957025</v>
+        <v>2.255142484092573</v>
       </c>
       <c r="L6">
-        <v>0.09298634607271339</v>
+        <v>0.214302310989666</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1063363263582886</v>
+        <v>0.1469174816855627</v>
       </c>
       <c r="D7">
-        <v>0.0759604963453171</v>
+        <v>0.0939912140673016</v>
       </c>
       <c r="E7">
-        <v>0.07189632086070219</v>
+        <v>0.1387421164367382</v>
       </c>
       <c r="F7">
-        <v>1.064767784865865</v>
+        <v>2.524565405130346</v>
       </c>
       <c r="G7">
-        <v>0.7825076633777712</v>
+        <v>1.811079023114516</v>
       </c>
       <c r="H7">
-        <v>0.587146957478069</v>
+        <v>1.598857600326198</v>
       </c>
       <c r="I7">
-        <v>0.7557909363805209</v>
+        <v>1.800941513453552</v>
       </c>
       <c r="J7">
-        <v>0.09093288030019764</v>
+        <v>0.2134195451813206</v>
       </c>
       <c r="K7">
-        <v>3.994422858780297</v>
+        <v>2.31083772884017</v>
       </c>
       <c r="L7">
-        <v>0.09458077928044162</v>
+        <v>0.2143519116428294</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1238525889745858</v>
+        <v>0.1513734947317857</v>
       </c>
       <c r="D8">
-        <v>0.08984033551887194</v>
+        <v>0.09804905202390302</v>
       </c>
       <c r="E8">
-        <v>0.08010331341639443</v>
+        <v>0.1401453378571418</v>
       </c>
       <c r="F8">
-        <v>1.093243785350651</v>
+        <v>2.497712742518672</v>
       </c>
       <c r="G8">
-        <v>0.7979311484358647</v>
+        <v>1.786002756131083</v>
       </c>
       <c r="H8">
-        <v>0.5787887867400769</v>
+        <v>1.57684569980448</v>
       </c>
       <c r="I8">
-        <v>0.7736528201338615</v>
+        <v>1.780679280546728</v>
       </c>
       <c r="J8">
-        <v>0.09627446635133197</v>
+        <v>0.2129026447467481</v>
       </c>
       <c r="K8">
-        <v>4.831987601226103</v>
+        <v>2.557324467618116</v>
       </c>
       <c r="L8">
-        <v>0.1018812293327187</v>
+        <v>0.2147413767360717</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.158880322171342</v>
+        <v>0.1603935584798535</v>
       </c>
       <c r="D9">
-        <v>0.1173678961932865</v>
+        <v>0.1060762659699606</v>
       </c>
       <c r="E9">
-        <v>0.09686573697927869</v>
+        <v>0.1432534999719834</v>
       </c>
       <c r="F9">
-        <v>1.17720142842991</v>
+        <v>2.457819697630455</v>
       </c>
       <c r="G9">
-        <v>0.854556056263263</v>
+        <v>1.747723062074698</v>
       </c>
       <c r="H9">
-        <v>0.5768541293492859</v>
+        <v>1.540847639974828</v>
       </c>
       <c r="I9">
-        <v>0.8292691916110897</v>
+        <v>1.750213178899124</v>
       </c>
       <c r="J9">
-        <v>0.108119035535303</v>
+        <v>0.2126189356680683</v>
       </c>
       <c r="K9">
-        <v>6.495843905123991</v>
+        <v>3.043140026529898</v>
       </c>
       <c r="L9">
-        <v>0.1172814138186666</v>
+        <v>0.2161164627363092</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1851934845194592</v>
+        <v>0.167190109950738</v>
       </c>
       <c r="D10">
-        <v>0.1378936792570471</v>
+        <v>0.112014276170882</v>
       </c>
       <c r="E10">
-        <v>0.1096956318567237</v>
+        <v>0.1457532078503583</v>
       </c>
       <c r="F10">
-        <v>1.25953673142665</v>
+        <v>2.436331353252825</v>
       </c>
       <c r="G10">
-        <v>0.9157110493015352</v>
+        <v>1.72629284749938</v>
       </c>
       <c r="H10">
-        <v>0.5858250251254162</v>
+        <v>1.518783205885327</v>
       </c>
       <c r="I10">
-        <v>0.8852582298386054</v>
+        <v>1.733509867280105</v>
       </c>
       <c r="J10">
-        <v>0.1178262463232755</v>
+        <v>0.2128554019466478</v>
       </c>
       <c r="K10">
-        <v>7.739113218259718</v>
+        <v>3.401513353167388</v>
       </c>
       <c r="L10">
-        <v>0.1293976068332157</v>
+        <v>0.2174983237112329</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1973307083857776</v>
+        <v>0.1703184285537844</v>
       </c>
       <c r="D11">
-        <v>0.1473252099512763</v>
+        <v>0.1147240147617055</v>
       </c>
       <c r="E11">
-        <v>0.1156706058366552</v>
+        <v>0.1469371111928446</v>
       </c>
       <c r="F11">
-        <v>1.302349506713696</v>
+        <v>2.428262661377076</v>
       </c>
       <c r="G11">
-        <v>0.9486405917045175</v>
+        <v>1.718008526879316</v>
       </c>
       <c r="H11">
-        <v>0.5925557125910927</v>
+        <v>1.509700412003838</v>
       </c>
       <c r="I11">
-        <v>0.9146538520469605</v>
+        <v>1.727151090372537</v>
       </c>
       <c r="J11">
-        <v>0.1225027958804716</v>
+        <v>0.2130595970184501</v>
       </c>
       <c r="K11">
-        <v>8.311183650395037</v>
+        <v>3.564852600194797</v>
       </c>
       <c r="L11">
-        <v>0.1351186445888146</v>
+        <v>0.2182074535504412</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2019545904589108</v>
+        <v>0.1715082447064873</v>
       </c>
       <c r="D12">
-        <v>0.1509128619047431</v>
+        <v>0.1157513007893698</v>
       </c>
       <c r="E12">
-        <v>0.1179555539277786</v>
+        <v>0.1473921259732478</v>
       </c>
       <c r="F12">
-        <v>1.319413490764646</v>
+        <v>2.425453338651963</v>
       </c>
       <c r="G12">
-        <v>0.9619256502526383</v>
+        <v>1.715082972680037</v>
       </c>
       <c r="H12">
-        <v>0.595522302975624</v>
+        <v>1.506398507577657</v>
       </c>
       <c r="I12">
-        <v>0.9264095329071296</v>
+        <v>1.724921979692382</v>
       </c>
       <c r="J12">
-        <v>0.1243151007670207</v>
+        <v>0.213150811894316</v>
       </c>
       <c r="K12">
-        <v>8.52892680750864</v>
+        <v>3.626748579528908</v>
       </c>
       <c r="L12">
-        <v>0.1373183919312595</v>
+        <v>0.2184875378460163</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2009574556784202</v>
+        <v>0.171251766691924</v>
       </c>
       <c r="D13">
-        <v>0.1501394350684535</v>
+        <v>0.1155300053563053</v>
       </c>
       <c r="E13">
-        <v>0.1174624139175791</v>
+        <v>0.1472938330477156</v>
       </c>
       <c r="F13">
-        <v>1.315699191232767</v>
+        <v>2.426047418858531</v>
       </c>
       <c r="G13">
-        <v>0.9590268377481692</v>
+        <v>1.715703619572707</v>
       </c>
       <c r="H13">
-        <v>0.5948641840627573</v>
+        <v>1.507103509174527</v>
       </c>
       <c r="I13">
-        <v>0.9238489582203897</v>
+        <v>1.725394096523821</v>
       </c>
       <c r="J13">
-        <v>0.123922880683871</v>
+        <v>0.2131305494075093</v>
       </c>
       <c r="K13">
-        <v>8.481979411587361</v>
+        <v>3.613416295767877</v>
       </c>
       <c r="L13">
-        <v>0.1368431005586288</v>
+        <v>0.2184267032960818</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1977105384653157</v>
+        <v>0.1704162117927837</v>
       </c>
       <c r="D14">
-        <v>0.1476200290517511</v>
+        <v>0.114808507135848</v>
       </c>
       <c r="E14">
-        <v>0.1158581270774306</v>
+        <v>0.1469744114975207</v>
       </c>
       <c r="F14">
-        <v>1.303735805657354</v>
+        <v>2.428026599994112</v>
       </c>
       <c r="G14">
-        <v>0.9497167287240558</v>
+        <v>1.71776359472139</v>
       </c>
       <c r="H14">
-        <v>0.592791177301109</v>
+        <v>1.509426003816557</v>
       </c>
       <c r="I14">
-        <v>0.9156081251426684</v>
+        <v>1.726964113051132</v>
       </c>
       <c r="J14">
-        <v>0.1226510417813813</v>
+        <v>0.2130668229534578</v>
       </c>
       <c r="K14">
-        <v>8.329074129679441</v>
+        <v>3.569943970788529</v>
       </c>
       <c r="L14">
-        <v>0.1352989318581734</v>
+        <v>0.2182302648754941</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1957254428627238</v>
+        <v>0.1699050842887146</v>
       </c>
       <c r="D15">
-        <v>0.1460790029337602</v>
+        <v>0.1143667189413264</v>
       </c>
       <c r="E15">
-        <v>0.1148784425968685</v>
+        <v>0.1467796277555173</v>
       </c>
       <c r="F15">
-        <v>1.296521360609717</v>
+        <v>2.429270978806599</v>
       </c>
       <c r="G15">
-        <v>0.9441227371295327</v>
+        <v>1.719052966058783</v>
       </c>
       <c r="H15">
-        <v>0.5915769720879638</v>
+        <v>1.510866521389019</v>
       </c>
       <c r="I15">
-        <v>0.9106435426002761</v>
+        <v>1.727949097860808</v>
       </c>
       <c r="J15">
-        <v>0.1218775178435649</v>
+        <v>0.2130295975209719</v>
       </c>
       <c r="K15">
-        <v>8.23556570454673</v>
+        <v>3.54332144813975</v>
       </c>
       <c r="L15">
-        <v>0.1343575235197108</v>
+        <v>0.2181114443582644</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1844039638359476</v>
+        <v>0.1669863966453136</v>
       </c>
       <c r="D16">
-        <v>0.1372794176273402</v>
+        <v>0.1118373547164708</v>
       </c>
       <c r="E16">
-        <v>0.1093081438786641</v>
+        <v>0.1456767756356179</v>
       </c>
       <c r="F16">
-        <v>1.256853388350336</v>
+        <v>2.436893061831825</v>
       </c>
       <c r="G16">
-        <v>0.9136685472777515</v>
+        <v>1.726863796675019</v>
       </c>
       <c r="H16">
-        <v>0.5854415374831632</v>
+        <v>1.51939601953724</v>
       </c>
       <c r="I16">
-        <v>0.8834211166009709</v>
+        <v>1.733950420985309</v>
       </c>
       <c r="J16">
-        <v>0.1175261937220569</v>
+        <v>0.2128440013173716</v>
       </c>
       <c r="K16">
-        <v>7.701872652142924</v>
+        <v>3.390844873720937</v>
       </c>
       <c r="L16">
-        <v>0.1290282030160981</v>
+        <v>0.2174535983573804</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1775039720469067</v>
+        <v>0.1652051876710203</v>
       </c>
       <c r="D17">
-        <v>0.1319070488408585</v>
+        <v>0.1102878101140163</v>
       </c>
       <c r="E17">
-        <v>0.1059280926671988</v>
+        <v>0.1450121701229854</v>
       </c>
       <c r="F17">
-        <v>1.233945912888473</v>
+        <v>2.442006546217215</v>
       </c>
       <c r="G17">
-        <v>0.8963493849735613</v>
+        <v>1.732031236527021</v>
       </c>
       <c r="H17">
-        <v>0.5823813140020064</v>
+        <v>1.524873259864336</v>
       </c>
       <c r="I17">
-        <v>0.867767109000809</v>
+        <v>1.737949938960789</v>
       </c>
       <c r="J17">
-        <v>0.1149262243688867</v>
+        <v>0.2127548891552209</v>
       </c>
       <c r="K17">
-        <v>7.37625495705322</v>
+        <v>3.297384183878307</v>
       </c>
       <c r="L17">
-        <v>0.125814635734578</v>
+        <v>0.2170706343720639</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1735507751693461</v>
+        <v>0.1641841257869316</v>
       </c>
       <c r="D18">
-        <v>0.1288257052595867</v>
+        <v>0.1093973571579454</v>
       </c>
       <c r="E18">
-        <v>0.1039968623290193</v>
+        <v>0.1446343109142312</v>
       </c>
       <c r="F18">
-        <v>1.221269130972047</v>
+        <v>2.445108263914918</v>
       </c>
       <c r="G18">
-        <v>0.8868635315499489</v>
+        <v>1.735141189161382</v>
       </c>
       <c r="H18">
-        <v>0.5808681477354867</v>
+        <v>1.528113440434893</v>
       </c>
       <c r="I18">
-        <v>0.859128949232165</v>
+        <v>1.740367003352858</v>
       </c>
       <c r="J18">
-        <v>0.113455071569966</v>
+        <v>0.2127127292454105</v>
       </c>
       <c r="K18">
-        <v>7.189568485114194</v>
+        <v>3.243657690921111</v>
       </c>
       <c r="L18">
-        <v>0.1239857682777696</v>
+        <v>0.2168579435093037</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1722148445318936</v>
+        <v>0.1638390049745624</v>
       </c>
       <c r="D19">
-        <v>0.1277838353808392</v>
+        <v>0.1090960049394596</v>
       </c>
       <c r="E19">
-        <v>0.1033451240706036</v>
+        <v>0.1445071316365656</v>
       </c>
       <c r="F19">
-        <v>1.217060351575995</v>
+        <v>2.446186009288738</v>
       </c>
       <c r="G19">
-        <v>0.8837311604733316</v>
+        <v>1.736217799939411</v>
       </c>
       <c r="H19">
-        <v>0.5803971774026593</v>
+        <v>1.5292259266988</v>
       </c>
       <c r="I19">
-        <v>0.8562652918766673</v>
+        <v>1.741205397073536</v>
       </c>
       <c r="J19">
-        <v>0.1129610220685251</v>
+        <v>0.2127000168359743</v>
       </c>
       <c r="K19">
-        <v>7.126457626483614</v>
+        <v>3.225471976975541</v>
       </c>
       <c r="L19">
-        <v>0.1233698001535686</v>
+        <v>0.2167872326812912</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1782368583709939</v>
+        <v>0.1653944445948952</v>
       </c>
       <c r="D20">
-        <v>0.1324780283280376</v>
+        <v>0.1104526789726208</v>
       </c>
       <c r="E20">
-        <v>0.1062865544691149</v>
+        <v>0.145082462902419</v>
       </c>
       <c r="F20">
-        <v>1.23633224699104</v>
+        <v>2.441445582772289</v>
       </c>
       <c r="G20">
-        <v>0.898143252098464</v>
+        <v>1.731466887330967</v>
       </c>
       <c r="H20">
-        <v>0.5826812627778537</v>
+        <v>1.524280900396363</v>
       </c>
       <c r="I20">
-        <v>0.8693952528171351</v>
+        <v>1.737512106854652</v>
       </c>
       <c r="J20">
-        <v>0.1152004555231585</v>
+        <v>0.2127634340253834</v>
       </c>
       <c r="K20">
-        <v>7.410854168726246</v>
+        <v>3.307330183417662</v>
       </c>
       <c r="L20">
-        <v>0.1261546859168092</v>
+        <v>0.2171106172401736</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1986634511866612</v>
+        <v>0.1706614941724638</v>
       </c>
       <c r="D21">
-        <v>0.1483595797634365</v>
+        <v>0.1150203974301434</v>
       </c>
       <c r="E21">
-        <v>0.1163287177267911</v>
+        <v>0.147068051848759</v>
       </c>
       <c r="F21">
-        <v>1.307225936969175</v>
+        <v>2.427438581182514</v>
       </c>
       <c r="G21">
-        <v>0.9524285205431653</v>
+        <v>1.717152781328664</v>
       </c>
       <c r="H21">
-        <v>0.5933884174026645</v>
+        <v>1.508740095248143</v>
       </c>
       <c r="I21">
-        <v>0.9180112105202554</v>
+        <v>1.726498103527575</v>
       </c>
       <c r="J21">
-        <v>0.1230234549984033</v>
+        <v>0.2130851639990894</v>
       </c>
       <c r="K21">
-        <v>8.373954414492971</v>
+        <v>3.582711697331831</v>
       </c>
       <c r="L21">
-        <v>0.1357515602219479</v>
+        <v>0.2182876502792794</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2121773456580058</v>
+        <v>0.1741340369829345</v>
       </c>
       <c r="D22">
-        <v>0.1588345512138147</v>
+        <v>0.118012441299129</v>
       </c>
       <c r="E22">
-        <v>0.1230234654736151</v>
+        <v>0.148404766645438</v>
       </c>
       <c r="F22">
-        <v>1.358567549359293</v>
+        <v>2.419719087834551</v>
       </c>
       <c r="G22">
-        <v>0.9927033247980148</v>
+        <v>1.709031140218457</v>
       </c>
       <c r="H22">
-        <v>0.6028415458568332</v>
+        <v>1.499385186094159</v>
       </c>
       <c r="I22">
-        <v>0.9534551947029968</v>
+        <v>1.720342378578884</v>
       </c>
       <c r="J22">
-        <v>0.1283796500051295</v>
+        <v>0.2133763968709985</v>
       </c>
       <c r="K22">
-        <v>9.009977099763944</v>
+        <v>3.76293884676187</v>
       </c>
       <c r="L22">
-        <v>0.1422195934043771</v>
+        <v>0.2191242330568741</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2049483895741417</v>
+        <v>0.1722779309697415</v>
       </c>
       <c r="D23">
-        <v>0.1532341989584154</v>
+        <v>0.1164149295667585</v>
       </c>
       <c r="E23">
-        <v>0.1194374418838073</v>
+        <v>0.1476877763607014</v>
       </c>
       <c r="F23">
-        <v>1.330678169590044</v>
+        <v>2.42370759235682</v>
       </c>
       <c r="G23">
-        <v>0.970740151087071</v>
+        <v>1.713252633602707</v>
       </c>
       <c r="H23">
-        <v>0.5975583663473856</v>
+        <v>1.504304600741762</v>
       </c>
       <c r="I23">
-        <v>0.9341808235502356</v>
+        <v>1.723532224199992</v>
       </c>
       <c r="J23">
-        <v>0.1254972744194873</v>
+        <v>0.2132135534101636</v>
       </c>
       <c r="K23">
-        <v>8.669853906203457</v>
+        <v>3.666726089362953</v>
       </c>
       <c r="L23">
-        <v>0.1387484047727625</v>
+        <v>0.2186715812952542</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1779054780676574</v>
+        <v>0.1653088722573557</v>
       </c>
       <c r="D24">
-        <v>0.1322198659469649</v>
+        <v>0.1103781405093684</v>
       </c>
       <c r="E24">
-        <v>0.1061244566723225</v>
+        <v>0.1450506703550083</v>
       </c>
       <c r="F24">
-        <v>1.235251855698138</v>
+        <v>2.441698690074844</v>
       </c>
       <c r="G24">
-        <v>0.8973307831870159</v>
+        <v>1.731721596322274</v>
       </c>
       <c r="H24">
-        <v>0.5825448918207741</v>
+        <v>1.524548421921978</v>
       </c>
       <c r="I24">
-        <v>0.8686580473205865</v>
+        <v>1.737709684204681</v>
       </c>
       <c r="J24">
-        <v>0.1150764023869257</v>
+        <v>0.2127595426320781</v>
       </c>
       <c r="K24">
-        <v>7.395210272721954</v>
+        <v>3.302833580351489</v>
       </c>
       <c r="L24">
-        <v>0.1260008913615778</v>
+        <v>0.2170925176844065</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1493156873701906</v>
+        <v>0.157923462767485</v>
       </c>
       <c r="D25">
-        <v>0.1098768895322024</v>
+        <v>0.1038974446565675</v>
       </c>
       <c r="E25">
-        <v>0.09224902611291697</v>
+        <v>0.1423746213999664</v>
       </c>
       <c r="F25">
-        <v>1.151135323125189</v>
+        <v>2.467241206042118</v>
       </c>
       <c r="G25">
-        <v>0.8360741879695723</v>
+        <v>1.756906992948956</v>
       </c>
       <c r="H25">
-        <v>0.5756755927243518</v>
+        <v>1.549817328934239</v>
       </c>
       <c r="I25">
-        <v>0.8117674450848753</v>
+        <v>1.757459756427679</v>
       </c>
       <c r="J25">
-        <v>0.1047515115587316</v>
+        <v>0.2126175521153044</v>
       </c>
       <c r="K25">
-        <v>6.042676741473656</v>
+        <v>2.911456778013076</v>
       </c>
       <c r="L25">
-        <v>0.1129854336465925</v>
+        <v>0.2156791332890791</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_80/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_80/res_line/pl_mw.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1526000130636476</v>
+        <v>0.1286389430880774</v>
       </c>
       <c r="D2">
-        <v>0.09915332967504753</v>
+        <v>0.09361820413351296</v>
       </c>
       <c r="E2">
-        <v>0.140549707625361</v>
+        <v>0.08236860158631742</v>
       </c>
       <c r="F2">
-        <v>2.491299424789091</v>
+        <v>1.102742624609064</v>
       </c>
       <c r="G2">
-        <v>1.779943708681913</v>
+        <v>0.8037773184684482</v>
       </c>
       <c r="H2">
-        <v>1.57136609747451</v>
+        <v>0.5774487296549609</v>
       </c>
       <c r="I2">
-        <v>1.775815328987598</v>
+        <v>0.7797982226151916</v>
       </c>
       <c r="J2">
-        <v>0.21281199231926</v>
+        <v>0.09780868391576547</v>
       </c>
       <c r="K2">
-        <v>2.62427832058529</v>
+        <v>5.060109874457225</v>
       </c>
       <c r="L2">
-        <v>0.2148883173652152</v>
+        <v>0.1039278550940992</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1490642734085696</v>
+        <v>0.1148046745692994</v>
       </c>
       <c r="D3">
-        <v>0.09595602584956708</v>
+        <v>0.08268210624470385</v>
       </c>
       <c r="E3">
-        <v>0.1394040164962149</v>
+        <v>0.07584672666549253</v>
       </c>
       <c r="F3">
-        <v>2.510866881906729</v>
+        <v>1.077237022829962</v>
       </c>
       <c r="G3">
-        <v>1.798341471978617</v>
+        <v>0.7887345981579443</v>
       </c>
       <c r="H3">
-        <v>1.587801569165379</v>
+        <v>0.5823914992935357</v>
       </c>
       <c r="I3">
-        <v>1.790624223074772</v>
+        <v>0.7634712556331849</v>
       </c>
       <c r="J3">
-        <v>0.2131302842509228</v>
+        <v>0.09345866787440116</v>
       </c>
       <c r="K3">
-        <v>2.430284566814805</v>
+        <v>4.399927138745113</v>
       </c>
       <c r="L3">
-        <v>0.2145085662648327</v>
+        <v>0.09807080637038723</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1469291304647697</v>
+        <v>0.1063824595026261</v>
       </c>
       <c r="D4">
-        <v>0.09400193139301649</v>
+        <v>0.07599717614622392</v>
       </c>
       <c r="E4">
-        <v>0.1387456275885093</v>
+        <v>0.07191774611943558</v>
       </c>
       <c r="F4">
-        <v>2.524486748038889</v>
+        <v>1.064828647888049</v>
       </c>
       <c r="G4">
-        <v>1.811006179643044</v>
+        <v>0.7825349119641913</v>
       </c>
       <c r="H4">
-        <v>1.598795043588282</v>
+        <v>0.5871171480756203</v>
       </c>
       <c r="I4">
-        <v>1.800882374654634</v>
+        <v>0.7558275775801988</v>
       </c>
       <c r="J4">
-        <v>0.2134177468574698</v>
+        <v>0.09094632979039119</v>
       </c>
       <c r="K4">
-        <v>2.311489827715889</v>
+        <v>3.996635195027125</v>
       </c>
       <c r="L4">
-        <v>0.2143525854560409</v>
+        <v>0.09459957503819538</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1460681149015812</v>
+        <v>0.1029663321460532</v>
       </c>
       <c r="D5">
-        <v>0.0932079595699804</v>
+        <v>0.07327909650419429</v>
       </c>
       <c r="E5">
-        <v>0.138488694624801</v>
+        <v>0.07033422650260235</v>
       </c>
       <c r="F5">
-        <v>2.530440063428514</v>
+        <v>1.060542528942442</v>
       </c>
       <c r="G5">
-        <v>1.816510436888208</v>
+        <v>0.7807252064218773</v>
       </c>
       <c r="H5">
-        <v>1.603501575869885</v>
+        <v>0.5894467103423722</v>
       </c>
       <c r="I5">
-        <v>1.805355265272318</v>
+        <v>0.7532767088751982</v>
       </c>
       <c r="J5">
-        <v>0.2135580431114086</v>
+        <v>0.08996013951473003</v>
       </c>
       <c r="K5">
-        <v>2.263162216242449</v>
+        <v>3.832708698846261</v>
       </c>
       <c r="L5">
-        <v>0.2143084624953318</v>
+        <v>0.09321458841725416</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1459256938582598</v>
+        <v>0.1023999934905788</v>
       </c>
       <c r="D6">
-        <v>0.09307626408217118</v>
+        <v>0.07282808934030527</v>
       </c>
       <c r="E6">
-        <v>0.1384467185424967</v>
+        <v>0.07007230629924521</v>
       </c>
       <c r="F6">
-        <v>2.531452936976237</v>
+        <v>1.059876024964751</v>
       </c>
       <c r="G6">
-        <v>1.817445124512986</v>
+        <v>0.7804666820025403</v>
       </c>
       <c r="H6">
-        <v>1.604296771760801</v>
+        <v>0.5898573249532575</v>
       </c>
       <c r="I6">
-        <v>1.806115645265741</v>
+        <v>0.7528862292478422</v>
       </c>
       <c r="J6">
-        <v>0.2135827379147948</v>
+        <v>0.08979859129583545</v>
       </c>
       <c r="K6">
-        <v>2.255142484092573</v>
+        <v>3.805511297957139</v>
       </c>
       <c r="L6">
-        <v>0.214302310989666</v>
+        <v>0.09298634607264944</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1469174816855627</v>
+        <v>0.1063363263585444</v>
       </c>
       <c r="D7">
-        <v>0.0939912140673016</v>
+        <v>0.07596049634523183</v>
       </c>
       <c r="E7">
-        <v>0.1387421164367382</v>
+        <v>0.07189632086068087</v>
       </c>
       <c r="F7">
-        <v>2.524565405130346</v>
+        <v>1.064767784865872</v>
       </c>
       <c r="G7">
-        <v>1.811079023114516</v>
+        <v>0.7825076633777996</v>
       </c>
       <c r="H7">
-        <v>1.598857600326198</v>
+        <v>0.587146957478069</v>
       </c>
       <c r="I7">
-        <v>1.800941513453552</v>
+        <v>0.7557909363805351</v>
       </c>
       <c r="J7">
-        <v>0.2134195451813206</v>
+        <v>0.09093288030031843</v>
       </c>
       <c r="K7">
-        <v>2.31083772884017</v>
+        <v>3.994422858780297</v>
       </c>
       <c r="L7">
-        <v>0.2143519116428294</v>
+        <v>0.09458077928032083</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1513734947317857</v>
+        <v>0.1238525889742306</v>
       </c>
       <c r="D8">
-        <v>0.09804905202390302</v>
+        <v>0.08984033551904957</v>
       </c>
       <c r="E8">
-        <v>0.1401453378571418</v>
+        <v>0.08010331341637666</v>
       </c>
       <c r="F8">
-        <v>2.497712742518672</v>
+        <v>1.093243785350651</v>
       </c>
       <c r="G8">
-        <v>1.786002756131083</v>
+        <v>0.7979311484358362</v>
       </c>
       <c r="H8">
-        <v>1.57684569980448</v>
+        <v>0.5787887867402048</v>
       </c>
       <c r="I8">
-        <v>1.780679280546728</v>
+        <v>0.7736528201338686</v>
       </c>
       <c r="J8">
-        <v>0.2129026447467481</v>
+        <v>0.09627446635127512</v>
       </c>
       <c r="K8">
-        <v>2.557324467618116</v>
+        <v>4.83198760122599</v>
       </c>
       <c r="L8">
-        <v>0.2147413767360717</v>
+        <v>0.1018812293327471</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1603935584798535</v>
+        <v>0.1588803221715978</v>
       </c>
       <c r="D9">
-        <v>0.1060762659699606</v>
+        <v>0.1173678961931017</v>
       </c>
       <c r="E9">
-        <v>0.1432534999719834</v>
+        <v>0.09686573697925738</v>
       </c>
       <c r="F9">
-        <v>2.457819697630455</v>
+        <v>1.177201428429882</v>
       </c>
       <c r="G9">
-        <v>1.747723062074698</v>
+        <v>0.8545560562632488</v>
       </c>
       <c r="H9">
-        <v>1.540847639974828</v>
+        <v>0.5768541293492575</v>
       </c>
       <c r="I9">
-        <v>1.750213178899124</v>
+        <v>0.8292691916110897</v>
       </c>
       <c r="J9">
-        <v>0.2126189356680683</v>
+        <v>0.1081190355352959</v>
       </c>
       <c r="K9">
-        <v>3.043140026529898</v>
+        <v>6.495843905123991</v>
       </c>
       <c r="L9">
-        <v>0.2161164627363092</v>
+        <v>0.117281413818624</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.167190109950738</v>
+        <v>0.185193484519715</v>
       </c>
       <c r="D10">
-        <v>0.112014276170882</v>
+        <v>0.1378936792571182</v>
       </c>
       <c r="E10">
-        <v>0.1457532078503583</v>
+        <v>0.1096956318567095</v>
       </c>
       <c r="F10">
-        <v>2.436331353252825</v>
+        <v>1.25953673142665</v>
       </c>
       <c r="G10">
-        <v>1.72629284749938</v>
+        <v>0.9157110493015495</v>
       </c>
       <c r="H10">
-        <v>1.518783205885327</v>
+        <v>0.5858250251253878</v>
       </c>
       <c r="I10">
-        <v>1.733509867280105</v>
+        <v>0.8852582298386054</v>
       </c>
       <c r="J10">
-        <v>0.2128554019466478</v>
+        <v>0.1178262463232045</v>
       </c>
       <c r="K10">
-        <v>3.401513353167388</v>
+        <v>7.739113218259831</v>
       </c>
       <c r="L10">
-        <v>0.2174983237112329</v>
+        <v>0.1293976068332086</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1703184285537844</v>
+        <v>0.197330708386076</v>
       </c>
       <c r="D11">
-        <v>0.1147240147617055</v>
+        <v>0.1473252099512194</v>
       </c>
       <c r="E11">
-        <v>0.1469371111928446</v>
+        <v>0.115670605836673</v>
       </c>
       <c r="F11">
-        <v>2.428262661377076</v>
+        <v>1.302349506713696</v>
       </c>
       <c r="G11">
-        <v>1.718008526879316</v>
+        <v>0.9486405917045744</v>
       </c>
       <c r="H11">
-        <v>1.509700412003838</v>
+        <v>0.5925557125910643</v>
       </c>
       <c r="I11">
-        <v>1.727151090372537</v>
+        <v>0.9146538520469463</v>
       </c>
       <c r="J11">
-        <v>0.2130595970184501</v>
+        <v>0.122502795880493</v>
       </c>
       <c r="K11">
-        <v>3.564852600194797</v>
+        <v>8.311183650395094</v>
       </c>
       <c r="L11">
-        <v>0.2182074535504412</v>
+        <v>0.1351186445886938</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1715082447064873</v>
+        <v>0.2019545904587829</v>
       </c>
       <c r="D12">
-        <v>0.1157513007893698</v>
+        <v>0.150912861904672</v>
       </c>
       <c r="E12">
-        <v>0.1473921259732478</v>
+        <v>0.1179555539277821</v>
       </c>
       <c r="F12">
-        <v>2.425453338651963</v>
+        <v>1.319413490764646</v>
       </c>
       <c r="G12">
-        <v>1.715082972680037</v>
+        <v>0.9619256502526241</v>
       </c>
       <c r="H12">
-        <v>1.506398507577657</v>
+        <v>0.5955223029757377</v>
       </c>
       <c r="I12">
-        <v>1.724921979692382</v>
+        <v>0.9264095329071083</v>
       </c>
       <c r="J12">
-        <v>0.213150811894316</v>
+        <v>0.1243151007671131</v>
       </c>
       <c r="K12">
-        <v>3.626748579528908</v>
+        <v>8.528926807508583</v>
       </c>
       <c r="L12">
-        <v>0.2184875378460163</v>
+        <v>0.1373183919312098</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.171251766691924</v>
+        <v>0.2009574556785765</v>
       </c>
       <c r="D13">
-        <v>0.1155300053563053</v>
+        <v>0.150139435068553</v>
       </c>
       <c r="E13">
-        <v>0.1472938330477156</v>
+        <v>0.1174624139175897</v>
       </c>
       <c r="F13">
-        <v>2.426047418858531</v>
+        <v>1.315699191232781</v>
       </c>
       <c r="G13">
-        <v>1.715703619572707</v>
+        <v>0.9590268377481976</v>
       </c>
       <c r="H13">
-        <v>1.507103509174527</v>
+        <v>0.5948641840627715</v>
       </c>
       <c r="I13">
-        <v>1.725394096523821</v>
+        <v>0.9238489582204039</v>
       </c>
       <c r="J13">
-        <v>0.2131305494075093</v>
+        <v>0.1239228806839279</v>
       </c>
       <c r="K13">
-        <v>3.613416295767877</v>
+        <v>8.481979411587361</v>
       </c>
       <c r="L13">
-        <v>0.2184267032960818</v>
+        <v>0.1368431005585649</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1704162117927837</v>
+        <v>0.1977105384653584</v>
       </c>
       <c r="D14">
-        <v>0.114808507135848</v>
+        <v>0.1476200290518364</v>
       </c>
       <c r="E14">
-        <v>0.1469744114975207</v>
+        <v>0.1158581270774164</v>
       </c>
       <c r="F14">
-        <v>2.428026599994112</v>
+        <v>1.303735805657354</v>
       </c>
       <c r="G14">
-        <v>1.71776359472139</v>
+        <v>0.9497167287240273</v>
       </c>
       <c r="H14">
-        <v>1.509426003816557</v>
+        <v>0.592791177301109</v>
       </c>
       <c r="I14">
-        <v>1.726964113051132</v>
+        <v>0.91560812514264</v>
       </c>
       <c r="J14">
-        <v>0.2130668229534578</v>
+        <v>0.12265104178136</v>
       </c>
       <c r="K14">
-        <v>3.569943970788529</v>
+        <v>8.329074129679611</v>
       </c>
       <c r="L14">
-        <v>0.2182302648754941</v>
+        <v>0.1352989318581947</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1699050842887146</v>
+        <v>0.1957254428625816</v>
       </c>
       <c r="D15">
-        <v>0.1143667189413264</v>
+        <v>0.1460790029336749</v>
       </c>
       <c r="E15">
-        <v>0.1467796277555173</v>
+        <v>0.1148784425968898</v>
       </c>
       <c r="F15">
-        <v>2.429270978806599</v>
+        <v>1.296521360609717</v>
       </c>
       <c r="G15">
-        <v>1.719052966058783</v>
+        <v>0.9441227371295184</v>
       </c>
       <c r="H15">
-        <v>1.510866521389019</v>
+        <v>0.5915769720879922</v>
       </c>
       <c r="I15">
-        <v>1.727949097860808</v>
+        <v>0.9106435426002903</v>
       </c>
       <c r="J15">
-        <v>0.2130295975209719</v>
+        <v>0.1218775178436076</v>
       </c>
       <c r="K15">
-        <v>3.54332144813975</v>
+        <v>8.235565704546843</v>
       </c>
       <c r="L15">
-        <v>0.2181114443582644</v>
+        <v>0.1343575235197108</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1669863966453136</v>
+        <v>0.1844039638360613</v>
       </c>
       <c r="D16">
-        <v>0.1118373547164708</v>
+        <v>0.1372794176273118</v>
       </c>
       <c r="E16">
-        <v>0.1456767756356179</v>
+        <v>0.1093081438786783</v>
       </c>
       <c r="F16">
-        <v>2.436893061831825</v>
+        <v>1.256853388350336</v>
       </c>
       <c r="G16">
-        <v>1.726863796675019</v>
+        <v>0.913668547277652</v>
       </c>
       <c r="H16">
-        <v>1.51939601953724</v>
+        <v>0.5854415374831632</v>
       </c>
       <c r="I16">
-        <v>1.733950420985309</v>
+        <v>0.8834211166009709</v>
       </c>
       <c r="J16">
-        <v>0.2128440013173716</v>
+        <v>0.1175261937219716</v>
       </c>
       <c r="K16">
-        <v>3.390844873720937</v>
+        <v>7.701872652142868</v>
       </c>
       <c r="L16">
-        <v>0.2174535983573804</v>
+        <v>0.1290282030160483</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1652051876710203</v>
+        <v>0.1775039720466793</v>
       </c>
       <c r="D17">
-        <v>0.1102878101140163</v>
+        <v>0.1319070488406737</v>
       </c>
       <c r="E17">
-        <v>0.1450121701229854</v>
+        <v>0.105928092667213</v>
       </c>
       <c r="F17">
-        <v>2.442006546217215</v>
+        <v>1.233945912888458</v>
       </c>
       <c r="G17">
-        <v>1.732031236527021</v>
+        <v>0.8963493849735897</v>
       </c>
       <c r="H17">
-        <v>1.524873259864336</v>
+        <v>0.5823813140018927</v>
       </c>
       <c r="I17">
-        <v>1.737949938960789</v>
+        <v>0.867767109000809</v>
       </c>
       <c r="J17">
-        <v>0.2127548891552209</v>
+        <v>0.1149262243689577</v>
       </c>
       <c r="K17">
-        <v>3.297384183878307</v>
+        <v>7.376254957053163</v>
       </c>
       <c r="L17">
-        <v>0.2170706343720639</v>
+        <v>0.1258146357346348</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1641841257869316</v>
+        <v>0.1735507751695877</v>
       </c>
       <c r="D18">
-        <v>0.1093973571579454</v>
+        <v>0.1288257052598425</v>
       </c>
       <c r="E18">
-        <v>0.1446343109142312</v>
+        <v>0.1039968623289802</v>
       </c>
       <c r="F18">
-        <v>2.445108263914918</v>
+        <v>1.221269130972047</v>
       </c>
       <c r="G18">
-        <v>1.735141189161382</v>
+        <v>0.8868635315500057</v>
       </c>
       <c r="H18">
-        <v>1.528113440434893</v>
+        <v>0.5808681477354867</v>
       </c>
       <c r="I18">
-        <v>1.740367003352858</v>
+        <v>0.859128949232165</v>
       </c>
       <c r="J18">
-        <v>0.2127127292454105</v>
+        <v>0.1134550715700229</v>
       </c>
       <c r="K18">
-        <v>3.243657690921111</v>
+        <v>7.189568485114421</v>
       </c>
       <c r="L18">
-        <v>0.2168579435093037</v>
+        <v>0.1239857682778407</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1638390049745624</v>
+        <v>0.1722148445320357</v>
       </c>
       <c r="D19">
-        <v>0.1090960049394596</v>
+        <v>0.1277838353810381</v>
       </c>
       <c r="E19">
-        <v>0.1445071316365656</v>
+        <v>0.1033451240706071</v>
       </c>
       <c r="F19">
-        <v>2.446186009288738</v>
+        <v>1.217060351576009</v>
       </c>
       <c r="G19">
-        <v>1.736217799939411</v>
+        <v>0.8837311604733458</v>
       </c>
       <c r="H19">
-        <v>1.5292259266988</v>
+        <v>0.580397177402773</v>
       </c>
       <c r="I19">
-        <v>1.741205397073536</v>
+        <v>0.8562652918766602</v>
       </c>
       <c r="J19">
-        <v>0.2127000168359743</v>
+        <v>0.1129610220684754</v>
       </c>
       <c r="K19">
-        <v>3.225471976975541</v>
+        <v>7.126457626483727</v>
       </c>
       <c r="L19">
-        <v>0.2167872326812912</v>
+        <v>0.1233698001535117</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1653944445948952</v>
+        <v>0.1782368583708802</v>
       </c>
       <c r="D20">
-        <v>0.1104526789726208</v>
+        <v>0.1324780283283502</v>
       </c>
       <c r="E20">
-        <v>0.145082462902419</v>
+        <v>0.1062865544690936</v>
       </c>
       <c r="F20">
-        <v>2.441445582772289</v>
+        <v>1.236332246991026</v>
       </c>
       <c r="G20">
-        <v>1.731466887330967</v>
+        <v>0.8981432520985209</v>
       </c>
       <c r="H20">
-        <v>1.524280900396363</v>
+        <v>0.5826812627778395</v>
       </c>
       <c r="I20">
-        <v>1.737512106854652</v>
+        <v>0.869395252817128</v>
       </c>
       <c r="J20">
-        <v>0.2127634340253834</v>
+        <v>0.1152004555230874</v>
       </c>
       <c r="K20">
-        <v>3.307330183417662</v>
+        <v>7.410854168726303</v>
       </c>
       <c r="L20">
-        <v>0.2171106172401736</v>
+        <v>0.1261546859168732</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1706614941724638</v>
+        <v>0.1986634511869028</v>
       </c>
       <c r="D21">
-        <v>0.1150203974301434</v>
+        <v>0.1483595797634365</v>
       </c>
       <c r="E21">
-        <v>0.147068051848759</v>
+        <v>0.1163287177267875</v>
       </c>
       <c r="F21">
-        <v>2.427438581182514</v>
+        <v>1.307225936969189</v>
       </c>
       <c r="G21">
-        <v>1.717152781328664</v>
+        <v>0.9524285205431795</v>
       </c>
       <c r="H21">
-        <v>1.508740095248143</v>
+        <v>0.5933884174027781</v>
       </c>
       <c r="I21">
-        <v>1.726498103527575</v>
+        <v>0.9180112105202554</v>
       </c>
       <c r="J21">
-        <v>0.2130851639990894</v>
+        <v>0.1230234549985099</v>
       </c>
       <c r="K21">
-        <v>3.582711697331831</v>
+        <v>8.373954414492971</v>
       </c>
       <c r="L21">
-        <v>0.2182876502792794</v>
+        <v>0.135751560221955</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1741340369829345</v>
+        <v>0.2121773456582474</v>
       </c>
       <c r="D22">
-        <v>0.118012441299129</v>
+        <v>0.158834551213701</v>
       </c>
       <c r="E22">
-        <v>0.148404766645438</v>
+        <v>0.1230234654736293</v>
       </c>
       <c r="F22">
-        <v>2.419719087834551</v>
+        <v>1.358567549359293</v>
       </c>
       <c r="G22">
-        <v>1.709031140218457</v>
+        <v>0.9927033247979722</v>
       </c>
       <c r="H22">
-        <v>1.499385186094159</v>
+        <v>0.602841545856819</v>
       </c>
       <c r="I22">
-        <v>1.720342378578884</v>
+        <v>0.9534551947029826</v>
       </c>
       <c r="J22">
-        <v>0.2133763968709985</v>
+        <v>0.1283796500050727</v>
       </c>
       <c r="K22">
-        <v>3.76293884676187</v>
+        <v>9.009977099764171</v>
       </c>
       <c r="L22">
-        <v>0.2191242330568741</v>
+        <v>0.1422195934043629</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1722779309697415</v>
+        <v>0.2049483895741417</v>
       </c>
       <c r="D23">
-        <v>0.1164149295667585</v>
+        <v>0.1532341989582591</v>
       </c>
       <c r="E23">
-        <v>0.1476877763607014</v>
+        <v>0.1194374418838322</v>
       </c>
       <c r="F23">
-        <v>2.42370759235682</v>
+        <v>1.330678169590044</v>
       </c>
       <c r="G23">
-        <v>1.713252633602707</v>
+        <v>0.9707401510870426</v>
       </c>
       <c r="H23">
-        <v>1.504304600741762</v>
+        <v>0.5975583663475135</v>
       </c>
       <c r="I23">
-        <v>1.723532224199992</v>
+        <v>0.9341808235502285</v>
       </c>
       <c r="J23">
-        <v>0.2132135534101636</v>
+        <v>0.1254972744194305</v>
       </c>
       <c r="K23">
-        <v>3.666726089362953</v>
+        <v>8.6698539062034</v>
       </c>
       <c r="L23">
-        <v>0.2186715812952542</v>
+        <v>0.138748404772862</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1653088722573557</v>
+        <v>0.1779054780676574</v>
       </c>
       <c r="D24">
-        <v>0.1103781405093684</v>
+        <v>0.1322198659469507</v>
       </c>
       <c r="E24">
-        <v>0.1450506703550083</v>
+        <v>0.1061244566723509</v>
       </c>
       <c r="F24">
-        <v>2.441698690074844</v>
+        <v>1.235251855698166</v>
       </c>
       <c r="G24">
-        <v>1.731721596322274</v>
+        <v>0.8973307831870159</v>
       </c>
       <c r="H24">
-        <v>1.524548421921978</v>
+        <v>0.5825448918207883</v>
       </c>
       <c r="I24">
-        <v>1.737709684204681</v>
+        <v>0.8686580473205865</v>
       </c>
       <c r="J24">
-        <v>0.2127595426320781</v>
+        <v>0.1150764023869542</v>
       </c>
       <c r="K24">
-        <v>3.302833580351489</v>
+        <v>7.39521027272184</v>
       </c>
       <c r="L24">
-        <v>0.2170925176844065</v>
+        <v>0.1260008913615707</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.157923462767485</v>
+        <v>0.1493156873702191</v>
       </c>
       <c r="D25">
-        <v>0.1038974446565675</v>
+        <v>0.1098768895320887</v>
       </c>
       <c r="E25">
-        <v>0.1423746213999664</v>
+        <v>0.09224902611291341</v>
       </c>
       <c r="F25">
-        <v>2.467241206042118</v>
+        <v>1.151135323125146</v>
       </c>
       <c r="G25">
-        <v>1.756906992948956</v>
+        <v>0.8360741879694586</v>
       </c>
       <c r="H25">
-        <v>1.549817328934239</v>
+        <v>0.5756755927243233</v>
       </c>
       <c r="I25">
-        <v>1.757459756427679</v>
+        <v>0.8117674450848469</v>
       </c>
       <c r="J25">
-        <v>0.2126175521153044</v>
+        <v>0.1047515115588382</v>
       </c>
       <c r="K25">
-        <v>2.911456778013076</v>
+        <v>6.042676741473656</v>
       </c>
       <c r="L25">
-        <v>0.2156791332890791</v>
+        <v>0.1129854336466423</v>
       </c>
       <c r="M25">
         <v>0</v>
